--- a/PDFMultiExport.xlsx
+++ b/PDFMultiExport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\development\PanunTools_All\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53A791E-C822-4A30-93E5-F7B7D8B2DD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F112F58-F1C2-4E01-BFB7-F408AA2D2069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="2370" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExportTable" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="88">
   <si>
     <t>PRODUCTS_DATE</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>arch_e</t>
-  </si>
-  <si>
-    <t>land</t>
   </si>
   <si>
     <t>False</t>
@@ -139,12 +136,6 @@
     <t>FILENAME</t>
   </si>
   <si>
-    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\Repair_Tiles_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
-  </si>
-  <si>
-    <t>AVENZA_Repair_Tile_</t>
-  </si>
-  <si>
     <t>MAPSERIES_PAGES</t>
   </si>
   <si>
@@ -181,28 +172,13 @@
     <t>NO_YES</t>
   </si>
   <si>
-    <t>36x36</t>
-  </si>
-  <si>
     <t>port</t>
   </si>
   <si>
     <t>prog</t>
   </si>
   <si>
-    <t>ownership</t>
-  </si>
-  <si>
-    <t>dpa</t>
-  </si>
-  <si>
     <t>airops</t>
-  </si>
-  <si>
-    <t>AFR_avoidance</t>
-  </si>
-  <si>
-    <t>ops_overview</t>
   </si>
   <si>
     <t>pilot</t>
@@ -211,103 +187,7 @@
     <t>11x17</t>
   </si>
   <si>
-    <t>repeater</t>
-  </si>
-  <si>
-    <t>Repair_Overview</t>
-  </si>
-  <si>
-    <t>Repair_TuleIndianRes</t>
-  </si>
-  <si>
     <t>trans</t>
-  </si>
-  <si>
-    <t>PIO 36x36</t>
-  </si>
-  <si>
-    <t>Progression Arch E (Portrait)</t>
-  </si>
-  <si>
-    <t>Ownership Arch E (Portrait)</t>
-  </si>
-  <si>
-    <t>DPA Arch E (Portrait)</t>
-  </si>
-  <si>
-    <t>Operations-IR_Arch E_port</t>
-  </si>
-  <si>
-    <t>AirOps Arch E (Landscape)</t>
-  </si>
-  <si>
-    <t>AFRAvoidance_2021_Windy</t>
-  </si>
-  <si>
-    <t>Repair_2021_Windy-Castle</t>
-  </si>
-  <si>
-    <t>Briefing 36x36</t>
-  </si>
-  <si>
-    <t>Overview Arch E</t>
-  </si>
-  <si>
-    <t>Pilot Map 11x17 Port</t>
-  </si>
-  <si>
-    <t>Pilot Map Table 11x17</t>
-  </si>
-  <si>
-    <t>Repeater 8.5x11</t>
-  </si>
-  <si>
-    <t>Repair_2021_Windy_TuleIndianRes_Zoom</t>
-  </si>
-  <si>
-    <t>Transportation 11x17 Landscape</t>
-  </si>
-  <si>
-    <t>Transportation Arch E Port</t>
-  </si>
-  <si>
-    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\pio_arch_e_port_2021_Windy_CATIA003058_ArcPro_2_8.aprx</t>
-  </si>
-  <si>
-    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\prog_arch_e_port_2021_Windy_CATIA003058_ArcPro_2_8_jsilverman.aprx</t>
-  </si>
-  <si>
-    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\ownership_2021_Windy_CATIA003058_ArcPro_2_8.aprx</t>
-  </si>
-  <si>
-    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\dpa_2021_Windy_CATIA003058_ArcPro_2_8.aprx</t>
-  </si>
-  <si>
-    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\ops_ir_2021_Windy_CATIA003058_ArcPro_2_8.aprx</t>
-  </si>
-  <si>
-    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\airops_2021_Windy_CATIA003058_ArcPro_2_8.aprx</t>
-  </si>
-  <si>
-    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\AFR_avoidance_2021_Windy_CATIA003058_ArcPro_2_8.aprx</t>
-  </si>
-  <si>
-    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\brief_2021_Windy_CATIA003058_ArcPro_2_8.aprx</t>
-  </si>
-  <si>
-    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\ops_2021_Windy_CATIA003058_ArcPro_2_8.aprx</t>
-  </si>
-  <si>
-    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\pilot_2021_Windy_CATIA003058_ArcPro_2_8.aprx</t>
-  </si>
-  <si>
-    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\repeater_2021_Windy_CATIA003058_ArcPro_2_8.aprx</t>
-  </si>
-  <si>
-    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\SuppressionRepair_ArchE_2021_Windy_CATIA003058_ArcPro_2_8.aprx</t>
-  </si>
-  <si>
-    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\transportation_2021_Windy_CATIA003058_ArcPro_2_8.aprx</t>
   </si>
   <si>
     <t>MULTIPLE PDF FILES (PAGE NAME AS SUFFIX)</t>
@@ -316,16 +196,10 @@
     <t>MULTIPLE PDF FILES (PAGE NUMBER AS SUFFIX)</t>
   </si>
   <si>
-    <t>1-3, 5 , 7,9-10</t>
-  </si>
-  <si>
     <t>RepairTile</t>
   </si>
   <si>
     <t>GEOOPS_PERIOD</t>
-  </si>
-  <si>
-    <t>0115day</t>
   </si>
   <si>
     <t>GEO</t>
@@ -362,6 +236,69 @@
   </si>
   <si>
     <t>YES - SUFFIX</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>repair</t>
+  </si>
+  <si>
+    <t>1021day</t>
+  </si>
+  <si>
+    <t>brief</t>
+  </si>
+  <si>
+    <t>ops</t>
+  </si>
+  <si>
+    <t>1-3, 5, 7, 9-10</t>
+  </si>
+  <si>
+    <t>Layout_36x48(ArchE)_Port</t>
+  </si>
+  <si>
+    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\airops_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\brief_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\ops_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\owner_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\repair_tiles_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\pilot_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\pio_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\repair_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\trans_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\prog_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>Layout_11x17_Port</t>
+  </si>
+  <si>
+    <t>Layout_18x24(ArchC)_Port</t>
+  </si>
+  <si>
+    <t>IAP</t>
+  </si>
+  <si>
+    <t>C:\Workspace\FireNet\2021_CATIA_Windy - GIS Data\2021_Windy\projects\iap_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
   </si>
 </sst>
 </file>
@@ -763,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5D0DF9-225F-4A6B-A31B-C4BC4EBA5000}">
-  <dimension ref="A1:V997"/>
+  <dimension ref="A1:V992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -797,43 +734,43 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="K1" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>1</v>
@@ -842,19 +779,19 @@
         <v>2</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U1" s="17" t="s">
         <v>4</v>
@@ -865,1061 +802,775 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7">
-        <v>20220115</v>
+        <v>20211021</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>14</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D2" s="22"/>
       <c r="E2" s="18" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="I2" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J2" s="10"/>
       <c r="K2" s="15"/>
-      <c r="L2" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="L2" s="10"/>
       <c r="M2" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O2" s="19">
         <v>80</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q2" s="19">
         <v>200</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="U2" s="20" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="V2" s="21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7">
-        <v>20220115</v>
+        <v>20211021</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="G3" s="18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>31</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J3" s="10"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="L3" s="10"/>
       <c r="M3" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O3" s="19">
         <v>80</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q3" s="19">
         <v>200</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="U3" s="20" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B4" s="7">
-        <v>20220115</v>
+        <v>20211021</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>6</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="18" t="s">
-        <v>96</v>
-      </c>
+      <c r="H4" s="18"/>
       <c r="I4" s="9" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="10" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O4" s="19">
         <v>80</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="19">
         <v>200</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="U4" s="20" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="V4" s="21" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B5" s="7">
-        <v>20220115</v>
+        <v>20211021</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="18" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="I5" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>31</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J5" s="10"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="L5" s="10"/>
       <c r="M5" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O5" s="19">
         <v>80</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="19">
         <v>200</v>
       </c>
       <c r="R5" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="U5" s="20" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="V5" s="21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" s="7">
-        <v>20220115</v>
+        <v>20211021</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" s="22"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="E6" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="G6" s="18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J6" s="10"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="L6" s="10"/>
       <c r="M6" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O6" s="19">
         <v>80</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="19">
         <v>200</v>
       </c>
       <c r="R6" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="U6" s="20" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="V6" s="21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B7" s="7">
-        <v>20220115</v>
+        <v>20211021</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+        <v>49</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="I7" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>31</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J7" s="10"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="L7" s="10"/>
       <c r="M7" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O7" s="19">
         <v>80</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="19">
         <v>200</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="U7" s="20" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="V7" s="21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" s="7">
-        <v>20220115</v>
+        <v>20211021</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="G8" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="I8" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J8" s="10"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="L8" s="10"/>
       <c r="M8" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="19">
         <v>80</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="19">
         <v>200</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="U8" s="20" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="V8" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7">
+        <v>20211021</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7">
-        <v>20220115</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18" t="s">
-        <v>48</v>
-      </c>
       <c r="G9" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="I9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>31</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J9" s="10"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="L9" s="10"/>
       <c r="M9" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O9" s="19">
         <v>80</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="19">
         <v>200</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="U9" s="20" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="V9" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B10" s="7">
-        <v>20220115</v>
+        <v>20211021</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="I10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J10" s="10"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="L10" s="10"/>
       <c r="M10" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O10" s="19">
         <v>80</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="19">
         <v>200</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="U10" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V10" s="21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B11" s="7">
-        <v>20220115</v>
+        <v>20211021</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="18" t="s">
-        <v>56</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="18" t="s">
-        <v>96</v>
-      </c>
+      <c r="H11" s="18"/>
       <c r="I11" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="15"/>
+      <c r="K11" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="L11" s="10" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="N11" s="19" t="str">
+        <f t="shared" ref="N11" si="0">"ADAPTIVE"</f>
+        <v>ADAPTIVE</v>
       </c>
       <c r="O11" s="19">
         <v>80</v>
       </c>
-      <c r="P11" s="19" t="s">
-        <v>11</v>
+      <c r="P11" s="19" t="str">
+        <f t="shared" ref="P11" si="1">"True"</f>
+        <v>True</v>
       </c>
       <c r="Q11" s="19">
         <v>200</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="U11" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="V11" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="V11" s="20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B12" s="7">
-        <v>20220115</v>
+        <v>20211021</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="22"/>
-      <c r="E12" s="18"/>
+      <c r="E12" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="F12" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="H12" s="18" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>32</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J12" s="10"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="L12" s="10"/>
       <c r="M12" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O12" s="19">
         <v>80</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="19">
         <v>200</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="T12" s="19" t="s">
         <v>11</v>
-      </c>
-      <c r="T12" s="19" t="s">
-        <v>12</v>
       </c>
       <c r="U12" s="20" t="s">
         <v>73</v>
       </c>
       <c r="V12" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7">
-        <v>20220115</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="19">
-        <v>80</v>
-      </c>
-      <c r="P13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="19">
-        <v>200</v>
-      </c>
-      <c r="R13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="S13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="T13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="U13" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="V13" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7">
-        <v>20220115</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="19">
-        <v>80</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>200</v>
-      </c>
-      <c r="R14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="S14" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="T14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="U14" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="V14" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7">
-        <v>20220115</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="19">
-        <v>80</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="19">
-        <v>200</v>
-      </c>
-      <c r="R15" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="T15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="U15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="V15" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7">
-        <v>20220115</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" s="19">
-        <v>80</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="19">
-        <v>200</v>
-      </c>
-      <c r="R16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="T16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="U16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="V16" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="7">
-        <v>20220115</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O17" s="19">
-        <v>80</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" s="19">
-        <v>200</v>
-      </c>
-      <c r="R17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="T17" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="U17" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="V17" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="7">
-        <v>20220115</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="19" t="str">
-        <f t="shared" ref="N18" si="0">"ADAPTIVE"</f>
-        <v>ADAPTIVE</v>
-      </c>
-      <c r="O18" s="19">
-        <v>80</v>
-      </c>
-      <c r="P18" s="19" t="str">
-        <f t="shared" ref="P18" si="1">"True"</f>
-        <v>True</v>
-      </c>
-      <c r="Q18" s="19">
-        <v>300</v>
-      </c>
-      <c r="R18" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="S18" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="T18" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="U18" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="V18" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1941,7 +1592,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1963,7 +1614,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1985,7 +1636,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2007,7 +1658,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2029,7 +1680,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2051,7 +1702,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2073,7 +1724,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2095,7 +1746,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2117,7 +1768,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2139,7 +1790,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2161,7 +1812,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2183,7 +1834,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2205,7 +1856,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -23347,119 +22998,9 @@
       <c r="S992" s="1"/>
       <c r="T992" s="1"/>
     </row>
-    <row r="993" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A993" s="1"/>
-      <c r="B993" s="1"/>
-      <c r="C993" s="1"/>
-      <c r="D993" s="1"/>
-      <c r="E993" s="1"/>
-      <c r="F993" s="1"/>
-      <c r="G993" s="1"/>
-      <c r="H993" s="1"/>
-      <c r="I993" s="1"/>
-      <c r="J993" s="1"/>
-      <c r="K993" s="1"/>
-      <c r="L993" s="1"/>
-      <c r="M993" s="1"/>
-      <c r="N993" s="1"/>
-      <c r="O993" s="1"/>
-      <c r="P993" s="1"/>
-      <c r="Q993" s="1"/>
-      <c r="R993" s="1"/>
-      <c r="S993" s="1"/>
-      <c r="T993" s="1"/>
-    </row>
-    <row r="994" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A994" s="1"/>
-      <c r="B994" s="1"/>
-      <c r="C994" s="1"/>
-      <c r="D994" s="1"/>
-      <c r="E994" s="1"/>
-      <c r="F994" s="1"/>
-      <c r="G994" s="1"/>
-      <c r="H994" s="1"/>
-      <c r="I994" s="1"/>
-      <c r="J994" s="1"/>
-      <c r="K994" s="1"/>
-      <c r="L994" s="1"/>
-      <c r="M994" s="1"/>
-      <c r="N994" s="1"/>
-      <c r="O994" s="1"/>
-      <c r="P994" s="1"/>
-      <c r="Q994" s="1"/>
-      <c r="R994" s="1"/>
-      <c r="S994" s="1"/>
-      <c r="T994" s="1"/>
-    </row>
-    <row r="995" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A995" s="1"/>
-      <c r="B995" s="1"/>
-      <c r="C995" s="1"/>
-      <c r="D995" s="1"/>
-      <c r="E995" s="1"/>
-      <c r="F995" s="1"/>
-      <c r="G995" s="1"/>
-      <c r="H995" s="1"/>
-      <c r="I995" s="1"/>
-      <c r="J995" s="1"/>
-      <c r="K995" s="1"/>
-      <c r="L995" s="1"/>
-      <c r="M995" s="1"/>
-      <c r="N995" s="1"/>
-      <c r="O995" s="1"/>
-      <c r="P995" s="1"/>
-      <c r="Q995" s="1"/>
-      <c r="R995" s="1"/>
-      <c r="S995" s="1"/>
-      <c r="T995" s="1"/>
-    </row>
-    <row r="996" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A996" s="1"/>
-      <c r="B996" s="1"/>
-      <c r="C996" s="1"/>
-      <c r="D996" s="1"/>
-      <c r="E996" s="1"/>
-      <c r="F996" s="1"/>
-      <c r="G996" s="1"/>
-      <c r="H996" s="1"/>
-      <c r="I996" s="1"/>
-      <c r="J996" s="1"/>
-      <c r="K996" s="1"/>
-      <c r="L996" s="1"/>
-      <c r="M996" s="1"/>
-      <c r="N996" s="1"/>
-      <c r="O996" s="1"/>
-      <c r="P996" s="1"/>
-      <c r="Q996" s="1"/>
-      <c r="R996" s="1"/>
-      <c r="S996" s="1"/>
-      <c r="T996" s="1"/>
-    </row>
-    <row r="997" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A997" s="1"/>
-      <c r="B997" s="1"/>
-      <c r="C997" s="1"/>
-      <c r="D997" s="1"/>
-      <c r="E997" s="1"/>
-      <c r="F997" s="1"/>
-      <c r="G997" s="1"/>
-      <c r="H997" s="1"/>
-      <c r="I997" s="1"/>
-      <c r="J997" s="1"/>
-      <c r="K997" s="1"/>
-      <c r="L997" s="1"/>
-      <c r="M997" s="1"/>
-      <c r="N997" s="1"/>
-      <c r="O997" s="1"/>
-      <c r="P997" s="1"/>
-      <c r="Q997" s="1"/>
-      <c r="R997" s="1"/>
-      <c r="S997" s="1"/>
-      <c r="T997" s="1"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="O2:O18" xr:uid="{F76D8679-435F-45A2-8154-BD44DF536BBD}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="O2:O12" xr:uid="{F76D8679-435F-45A2-8154-BD44DF536BBD}">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -23473,67 +23014,67 @@
           <x14:formula1>
             <xm:f>ValueLists!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>T2:T18</xm:sqref>
+          <xm:sqref>T2:T12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{7264E54A-679A-49BD-8BBB-87CF741E5F03}">
           <x14:formula1>
             <xm:f>ValueLists!$E$2:$E$7</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N18</xm:sqref>
+          <xm:sqref>N2:N12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{EE3BB927-AEB0-4C1B-B163-2D83A03DF706}">
           <x14:formula1>
             <xm:f>ValueLists!$D$2:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:R18</xm:sqref>
+          <xm:sqref>R2:R12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{A169B1EB-6435-400A-8F99-C1D858FDD715}">
           <x14:formula1>
             <xm:f>ValueLists!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>S2:S18 P2:P18 M2:M18</xm:sqref>
+          <xm:sqref>S2:S12 M2:M12 P2:P12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C193BFF6-9ECB-48CB-934F-43E116972DB1}">
+          <x14:formula1>
+            <xm:f>ValueLists!$H$2:$H$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE9ACDBC-9119-4909-9E3E-3A30DCD2C0C5}">
+          <x14:formula1>
+            <xm:f>ValueLists!$G$2:$G$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3ABDD74-B87D-4912-86AD-324A0DE8157A}">
+          <x14:formula1>
+            <xm:f>ValueLists!$I$2:$I$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{A2DEE7CF-F8B0-491E-90DC-B8329A557DB5}">
+          <x14:formula1>
+            <xm:f>ValueLists!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{31286C3D-782F-461F-A3BE-4566FD979CFB}">
           <x14:formula1>
             <xm:f>ValueLists!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A18</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C193BFF6-9ECB-48CB-934F-43E116972DB1}">
-          <x14:formula1>
-            <xm:f>ValueLists!$H$2:$H$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2:L18</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE9ACDBC-9119-4909-9E3E-3A30DCD2C0C5}">
-          <x14:formula1>
-            <xm:f>ValueLists!$G$2:$G$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J18</xm:sqref>
+          <xm:sqref>A2:A12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{032DADE2-A661-4DB5-98D4-E25812C011C2}">
           <x14:formula1>
             <xm:f>ValueLists!$J$2:$J$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C18</xm:sqref>
+          <xm:sqref>C2:C12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{A3041593-CCD9-4077-AFEC-A51FAB55417B}">
           <x14:formula1>
             <xm:f>ValueLists!$J$2:$J$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C18</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D3ABDD74-B87D-4912-86AD-324A0DE8157A}">
-          <x14:formula1>
-            <xm:f>ValueLists!$I$2:$I$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I18</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{A2DEE7CF-F8B0-491E-90DC-B8329A557DB5}">
-          <x14:formula1>
-            <xm:f>ValueLists!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I18</xm:sqref>
+          <xm:sqref>C2:C12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -23564,13 +23105,13 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -23579,51 +23120,51 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -23639,34 +23180,34 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -23684,23 +23225,23 @@
       <c r="A4" s="8"/>
       <c r="B4" s="4"/>
       <c r="C4" s="6" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="6" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -23718,13 +23259,13 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="6" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -23746,13 +23287,13 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -23776,7 +23317,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>

--- a/PDFMultiExport.xlsx
+++ b/PDFMultiExport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\development\PanunTools-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C84FA4F-671F-4844-A102-47B079E4388D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AAFA8C-F083-4978-AE34-3CC27278992E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="121">
   <si>
     <t>PRODUCTS_DATE</t>
   </si>
@@ -363,6 +363,42 @@
   <si>
     <t>EXPORT_REQUEST_LABEL</t>
   </si>
+  <si>
+    <t>airops_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>brief_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>iap_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>ops_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>owner_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>pilot_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>pio_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>prog_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>repair_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>repair_tiles_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>trans_2021_Windy_CATIA003058_ArcPro_2_7.aprx</t>
+  </si>
+  <si>
+    <t>APRX_FILENAME</t>
+  </si>
 </sst>
 </file>
 
@@ -498,7 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5D0DF9-225F-4A6B-A31B-C4BC4EBA5000}">
-  <dimension ref="A1:AB987"/>
+  <dimension ref="A1:AC987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -818,10 +854,11 @@
     <col min="25" max="25" width="18.375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="77.375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="105.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="45.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="105.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>57</v>
       </c>
@@ -904,10 +941,13 @@
         <v>4</v>
       </c>
       <c r="AB1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>38</v>
       </c>
@@ -982,10 +1022,13 @@
         <v>73</v>
       </c>
       <c r="AB2" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC2" s="24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
@@ -1060,10 +1103,13 @@
         <v>73</v>
       </c>
       <c r="AB3" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC3" s="24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>38</v>
       </c>
@@ -1134,10 +1180,13 @@
         <v>76</v>
       </c>
       <c r="AB4" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC4" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>38</v>
       </c>
@@ -1212,10 +1261,13 @@
         <v>73</v>
       </c>
       <c r="AB5" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC5" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -1290,10 +1342,13 @@
         <v>73</v>
       </c>
       <c r="AB6" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC6" s="24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -1368,10 +1423,13 @@
         <v>76</v>
       </c>
       <c r="AB7" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC7" s="24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
@@ -1446,10 +1504,13 @@
         <v>73</v>
       </c>
       <c r="AB8" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC8" s="24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
@@ -1524,10 +1585,13 @@
         <v>85</v>
       </c>
       <c r="AB9" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC9" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>38</v>
       </c>
@@ -1602,10 +1666,13 @@
         <v>73</v>
       </c>
       <c r="AB10" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC10" s="24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
@@ -1679,10 +1746,13 @@
         <v>76</v>
       </c>
       <c r="AB11" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC11" s="24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>38</v>
       </c>
@@ -1757,10 +1827,13 @@
         <v>73</v>
       </c>
       <c r="AB12" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC12" s="24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1784,7 +1857,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1808,7 +1881,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1832,7 +1905,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>

--- a/PDFMultiExport.xlsx
+++ b/PDFMultiExport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\development\PanunTools-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AAFA8C-F083-4978-AE34-3CC27278992E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C48AEA0-BA6D-45E6-B325-D933D045A95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="122">
   <si>
     <t>PRODUCTS_DATE</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>APRX_FILENAME</t>
+  </si>
+  <si>
+    <t>JPEG2000</t>
   </si>
 </sst>
 </file>
@@ -821,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5D0DF9-225F-4A6B-A31B-C4BC4EBA5000}">
   <dimension ref="A1:AC987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1707,9 +1710,8 @@
       <c r="N11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="19" t="str">
-        <f t="shared" ref="O11" si="0">"ADAPTIVE"</f>
-        <v>ADAPTIVE</v>
+      <c r="O11" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="P11" s="19">
         <v>80</v>
@@ -28197,12 +28199,6 @@
           </x14:formula1>
           <xm:sqref>N2:N12 Q2:Q12 T2:T12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E635C8B7-A510-4D5E-B49B-10C9EE291C37}">
-          <x14:formula1>
-            <xm:f>ValueLists!$E$2:$E$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>O2:O12</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BAF5E788-246B-4720-836F-9DF4373F6D58}">
           <x14:formula1>
             <xm:f>ValueLists!$D$2:$D$6</xm:f>
@@ -28215,6 +28211,12 @@
           </x14:formula1>
           <xm:sqref>U2:U12</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1FF79BA4-7505-4422-B82C-102CB009DB55}">
+          <x14:formula1>
+            <xm:f>ValueLists!$E$2:$E$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2:O12</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -28226,7 +28228,7 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28412,8 +28414,8 @@
       <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
+      <c r="E5" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -28441,7 +28443,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -28465,7 +28467,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -28488,7 +28490,9 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
